--- a/vocab_schulz_griesbach.xlsx
+++ b/vocab_schulz_griesbach.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Language\Deutsch\Schulz_Griesbach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Language\Deutsch\Schulz_Griesbach_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1018CA1A-496A-472B-86D4-8C5FD0CDB4D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CC112-A5B0-404B-A52B-CBF28E766167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="218">
   <si>
     <t>Abschnitt eins</t>
   </si>
@@ -349,6 +349,336 @@
   </si>
   <si>
     <t>Abschnitt zwei</t>
+  </si>
+  <si>
+    <t>der Unterricht</t>
+  </si>
+  <si>
+    <t>lesson</t>
+  </si>
+  <si>
+    <t>die Klasse</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>das Zimmer</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+e </t>
+  </si>
+  <si>
+    <t>beginnen</t>
+  </si>
+  <si>
+    <t>to begin</t>
+  </si>
+  <si>
+    <t>Guten Morgen!</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jetzt </t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>der Satz</t>
+  </si>
+  <si>
+    <t>ä, +e</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>wiederholen</t>
+  </si>
+  <si>
+    <t>to repeat</t>
+  </si>
+  <si>
+    <t>das Schulzimmer</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>der Fußboden</t>
+  </si>
+  <si>
+    <t>ö</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>die Decke</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>die Wand</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>hängen</t>
+  </si>
+  <si>
+    <t>to hang</t>
+  </si>
+  <si>
+    <t>to be hanging</t>
+  </si>
+  <si>
+    <t>vorn</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>hier vorn</t>
+  </si>
+  <si>
+    <t>up front</t>
+  </si>
+  <si>
+    <t>hier oben</t>
+  </si>
+  <si>
+    <t>up here</t>
+  </si>
+  <si>
+    <t>hinten</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>dort hinten</t>
+  </si>
+  <si>
+    <t>over there</t>
+  </si>
+  <si>
+    <t>Rechts</t>
+  </si>
+  <si>
+    <t>on the right</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>on the left</t>
+  </si>
+  <si>
+    <t>die Tafel</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>die Kreide</t>
+  </si>
+  <si>
+    <t>chalk/crayon</t>
+  </si>
+  <si>
+    <t>der Schwamm</t>
+  </si>
+  <si>
+    <t>sponge</t>
+  </si>
+  <si>
+    <t>die Landkarte</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>die Tür</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>das Fenster</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>die Lampe</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>verbessern</t>
+  </si>
+  <si>
+    <t>to correct</t>
+  </si>
+  <si>
+    <t>der Fehler</t>
+  </si>
+  <si>
+    <t>mistake</t>
+  </si>
+  <si>
+    <t>sehr</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>to show</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>to call</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>to make/to do</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>to build</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>kurz</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>groß</t>
+  </si>
+  <si>
+    <t>das Gegenteil</t>
+  </si>
+  <si>
+    <t>opposite/contrary</t>
+  </si>
+  <si>
+    <t>diktieren</t>
+  </si>
+  <si>
+    <t>to dictate</t>
+  </si>
+  <si>
+    <t>schreiben</t>
+  </si>
+  <si>
+    <t>to write</t>
+  </si>
+  <si>
+    <t>erklären</t>
+  </si>
+  <si>
+    <t>to explain</t>
+  </si>
+  <si>
+    <t>verstehen</t>
+  </si>
+  <si>
+    <t>to understand</t>
+  </si>
+  <si>
+    <t>sondern</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>das Kind</t>
+  </si>
+  <si>
+    <t>+er</t>
+  </si>
+  <si>
+    <t>kid</t>
+  </si>
+  <si>
+    <t>das Wort</t>
+  </si>
+  <si>
+    <t>ö, +er</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>die Stunde</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>die Minute</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>die Sekund</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>to last</t>
+  </si>
+  <si>
+    <t>ist aus</t>
+  </si>
+  <si>
+    <t>is over</t>
+  </si>
+  <si>
+    <t>schleißen</t>
+  </si>
+  <si>
+    <t>to close</t>
   </si>
 </sst>
 </file>
@@ -717,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +1060,7 @@
     <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="7" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
@@ -1128,7 +1458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>90</v>
       </c>
@@ -1139,7 +1469,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>91</v>
       </c>
@@ -1150,7 +1480,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>94</v>
       </c>
@@ -1161,7 +1491,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>95</v>
       </c>
@@ -1172,7 +1502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>99</v>
       </c>
@@ -1183,7 +1513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>101</v>
       </c>
@@ -1194,7 +1524,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>103</v>
       </c>
@@ -1205,7 +1535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>105</v>
       </c>
@@ -1216,9 +1546,488 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" t="s">
+        <v>181</v>
+      </c>
+      <c r="N28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29" t="s">
+        <v>117</v>
+      </c>
+      <c r="O29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" t="s">
+        <v>185</v>
+      </c>
+      <c r="N30" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" t="s">
+        <v>142</v>
+      </c>
+      <c r="O33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" t="s">
+        <v>144</v>
+      </c>
+      <c r="O34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" t="s">
+        <v>146</v>
+      </c>
+      <c r="O35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" t="s">
+        <v>148</v>
+      </c>
+      <c r="O36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N37" t="s">
+        <v>150</v>
+      </c>
+      <c r="O37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N40" t="s">
+        <v>214</v>
+      </c>
+      <c r="O40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>206</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>210</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/vocab_schulz_griesbach.xlsx
+++ b/vocab_schulz_griesbach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Language\Deutsch\Schulz_Griesbach_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162CC112-A5B0-404B-A52B-CBF28E766167}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736300C3-5A87-4966-A0AC-5301DF3C4CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="289">
   <si>
     <t>Abschnitt eins</t>
   </si>
@@ -679,6 +679,219 @@
   </si>
   <si>
     <t>to close</t>
+  </si>
+  <si>
+    <t>Abschnitt zehn</t>
+  </si>
+  <si>
+    <t>geduldig</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>ungeduldig</t>
+  </si>
+  <si>
+    <t>impatient</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>to wait</t>
+  </si>
+  <si>
+    <t>to get to know</t>
+  </si>
+  <si>
+    <t>der Film</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>neulich</t>
+  </si>
+  <si>
+    <t>der Tanz</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>verabreden</t>
+  </si>
+  <si>
+    <t>to arrange/plan to meet</t>
+  </si>
+  <si>
+    <t>gefallen</t>
+  </si>
+  <si>
+    <t>to like</t>
+  </si>
+  <si>
+    <t>hoffentlich</t>
+  </si>
+  <si>
+    <t>hopefully</t>
+  </si>
+  <si>
+    <t>denken</t>
+  </si>
+  <si>
+    <t>to think</t>
+  </si>
+  <si>
+    <t>kennenlernen</t>
+  </si>
+  <si>
+    <t>anfangen</t>
+  </si>
+  <si>
+    <t>to start</t>
+  </si>
+  <si>
+    <t>endlich</t>
+  </si>
+  <si>
+    <t>at last/finally</t>
+  </si>
+  <si>
+    <t>allein</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>begleiten</t>
+  </si>
+  <si>
+    <t>to accompany</t>
+  </si>
+  <si>
+    <t>gleiten</t>
+  </si>
+  <si>
+    <t>to slide</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>to smile</t>
+  </si>
+  <si>
+    <t>freundlich</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>freue</t>
+  </si>
+  <si>
+    <t>happy/pleased</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>to disturb</t>
+  </si>
+  <si>
+    <t>einladen</t>
+  </si>
+  <si>
+    <t>to invite</t>
+  </si>
+  <si>
+    <t>höflich</t>
+  </si>
+  <si>
+    <t>politely</t>
+  </si>
+  <si>
+    <t>wieder</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>verabschieden</t>
+  </si>
+  <si>
+    <t>to bid goodbye</t>
+  </si>
+  <si>
+    <t>unterhalten</t>
+  </si>
+  <si>
+    <t>to chat</t>
+  </si>
+  <si>
+    <t>unterwegs</t>
+  </si>
+  <si>
+    <t>on the way</t>
+  </si>
+  <si>
+    <t>gar nicht</t>
+  </si>
+  <si>
+    <t>not at all</t>
+  </si>
+  <si>
+    <t>die Überraschung</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>recently/the other day</t>
+  </si>
+  <si>
+    <t>wirklich</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>bald</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>bis bald</t>
+  </si>
+  <si>
+    <t>see you soon</t>
+  </si>
+  <si>
+    <t>bis später</t>
+  </si>
+  <si>
+    <t>see you later</t>
+  </si>
+  <si>
+    <t>wegfahren</t>
+  </si>
+  <si>
+    <t>to drive/move away</t>
+  </si>
+  <si>
+    <t>frei</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>pünktlich</t>
+  </si>
+  <si>
+    <t>punctual</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,15 +1272,15 @@
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" customWidth="1"/>
     <col min="14" max="14" width="12.88671875" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
   </cols>
@@ -2019,7 +2232,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>210</v>
       </c>
@@ -2028,6 +2241,258 @@
       </c>
       <c r="H49" s="8" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="K54" t="s">
+        <v>219</v>
+      </c>
+      <c r="L54" t="s">
+        <v>220</v>
+      </c>
+      <c r="N54" t="s">
+        <v>262</v>
+      </c>
+      <c r="O54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55" t="s">
+        <v>221</v>
+      </c>
+      <c r="L55" t="s">
+        <v>222</v>
+      </c>
+      <c r="N55" t="s">
+        <v>268</v>
+      </c>
+      <c r="O55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="F56" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="K56" t="s">
+        <v>228</v>
+      </c>
+      <c r="L56" t="s">
+        <v>274</v>
+      </c>
+      <c r="N56" t="s">
+        <v>270</v>
+      </c>
+      <c r="O56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="K57" t="s">
+        <v>235</v>
+      </c>
+      <c r="L57" t="s">
+        <v>236</v>
+      </c>
+      <c r="N57" t="s">
+        <v>277</v>
+      </c>
+      <c r="O57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" t="s">
+        <v>242</v>
+      </c>
+      <c r="L58" t="s">
+        <v>243</v>
+      </c>
+      <c r="N58" t="s">
+        <v>279</v>
+      </c>
+      <c r="O58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="K59" t="s">
+        <v>244</v>
+      </c>
+      <c r="L59" t="s">
+        <v>245</v>
+      </c>
+      <c r="N59" t="s">
+        <v>281</v>
+      </c>
+      <c r="O59" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+      <c r="K60" t="s">
+        <v>252</v>
+      </c>
+      <c r="L60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="K61" t="s">
+        <v>254</v>
+      </c>
+      <c r="L61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" t="s">
+        <v>251</v>
+      </c>
+      <c r="K62" t="s">
+        <v>260</v>
+      </c>
+      <c r="L62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="K63" t="s">
+        <v>275</v>
+      </c>
+      <c r="L63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="K64" t="s">
+        <v>285</v>
+      </c>
+      <c r="L64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>264</v>
+      </c>
+      <c r="B65" t="s">
+        <v>265</v>
+      </c>
+      <c r="K65" t="s">
+        <v>287</v>
+      </c>
+      <c r="L65" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>283</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/vocab_schulz_griesbach.xlsx
+++ b/vocab_schulz_griesbach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Language\Deutsch\Schulz_Griesbach_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736300C3-5A87-4966-A0AC-5301DF3C4CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5EEFEB-D3CF-4404-99D9-C0FFCFEE99E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="358">
   <si>
     <t>Abschnitt eins</t>
   </si>
@@ -892,6 +892,213 @@
   </si>
   <si>
     <t>punctual</t>
+  </si>
+  <si>
+    <t>Abschnitt drei</t>
+  </si>
+  <si>
+    <t>to count</t>
+  </si>
+  <si>
+    <t>der Stuhl</t>
+  </si>
+  <si>
+    <t>ü, +e</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>das Geld</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>die Münze</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>der Schein</t>
+  </si>
+  <si>
+    <t>bills</t>
+  </si>
+  <si>
+    <t>die Rechnung</t>
+  </si>
+  <si>
+    <t>bill/invoice</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>to cost</t>
+  </si>
+  <si>
+    <t>der Pfennig</t>
+  </si>
+  <si>
+    <t>penny</t>
+  </si>
+  <si>
+    <t>Abschnitt vier</t>
+  </si>
+  <si>
+    <t>die Reise</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>to live</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>to drive</t>
+  </si>
+  <si>
+    <t>nehmen</t>
+  </si>
+  <si>
+    <t>to take</t>
+  </si>
+  <si>
+    <t>der Fahrplan</t>
+  </si>
+  <si>
+    <t>timetable/schedule</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>die Seite</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>der Personenzug</t>
+  </si>
+  <si>
+    <t>passenger train</t>
+  </si>
+  <si>
+    <t>der Eilzug</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>express train/limited-stop train</t>
+  </si>
+  <si>
+    <t>der Schnellzug</t>
+  </si>
+  <si>
+    <t>fast/express train</t>
+  </si>
+  <si>
+    <t>abfahren</t>
+  </si>
+  <si>
+    <t>to depart</t>
+  </si>
+  <si>
+    <t>der Aufenthalt</t>
+  </si>
+  <si>
+    <t>halt/layover</t>
+  </si>
+  <si>
+    <t>halten</t>
+  </si>
+  <si>
+    <t>to halt</t>
+  </si>
+  <si>
+    <t>die Fahrkarte</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>ansteigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to get on/climb </t>
+  </si>
+  <si>
+    <t>das Abteil</t>
+  </si>
+  <si>
+    <t>compartment/section</t>
+  </si>
+  <si>
+    <t>der Platz</t>
+  </si>
+  <si>
+    <t>square/place</t>
+  </si>
+  <si>
+    <t>die Zeitung</t>
+  </si>
+  <si>
+    <t>magazine/newspaper</t>
+  </si>
+  <si>
+    <t>der Koffer</t>
+  </si>
+  <si>
+    <t>suitcase</t>
+  </si>
+  <si>
+    <t>die Tasche</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>der Bahnhof</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>ö, +e</t>
+  </si>
+  <si>
+    <t>der Flughafen</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>die Bushaltestelle</t>
+  </si>
+  <si>
+    <t>busstop</t>
+  </si>
+  <si>
+    <t>verlassen</t>
+  </si>
+  <si>
+    <t>to leave</t>
   </si>
 </sst>
 </file>
@@ -1260,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2232,7 +2439,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>210</v>
       </c>
@@ -2243,255 +2450,564 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" t="s">
+        <v>290</v>
+      </c>
+      <c r="F54" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" t="s">
+        <v>292</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" t="s">
+        <v>295</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>297</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" t="s">
+        <v>308</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F64" t="s">
+        <v>316</v>
+      </c>
+      <c r="G64" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" t="s">
+        <v>320</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" t="s">
+        <v>292</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>329</v>
+      </c>
+      <c r="B67" t="s">
+        <v>330</v>
+      </c>
+      <c r="F67" t="s">
+        <v>324</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>334</v>
+      </c>
+      <c r="F68" t="s">
+        <v>327</v>
+      </c>
+      <c r="G68" t="s">
+        <v>325</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" t="s">
+        <v>331</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" t="s">
+        <v>357</v>
+      </c>
+      <c r="F70" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72" t="s">
+        <v>122</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>345</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>347</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>349</v>
+      </c>
+      <c r="G76" t="s">
+        <v>351</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>354</v>
+      </c>
+      <c r="G78" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>223</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B127" t="s">
         <v>224</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F127" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G127" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H127" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K127" t="s">
         <v>219</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L127" t="s">
         <v>220</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N127" t="s">
         <v>262</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O127" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>239</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B128" t="s">
         <v>225</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F128" t="s">
         <v>229</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G128" t="s">
         <v>122</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H128" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K128" t="s">
         <v>221</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L128" t="s">
         <v>222</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N128" t="s">
         <v>268</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O128" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>231</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B129" t="s">
         <v>232</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F129" t="s">
         <v>272</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G129" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H129" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K129" t="s">
         <v>228</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L129" t="s">
         <v>274</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N129" t="s">
         <v>270</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O129" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>233</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B130" t="s">
         <v>234</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K130" t="s">
         <v>235</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L130" t="s">
         <v>236</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N130" t="s">
         <v>277</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O130" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>237</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B131" t="s">
         <v>238</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K131" t="s">
         <v>242</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L131" t="s">
         <v>243</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N131" t="s">
         <v>279</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O131" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>240</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B132" t="s">
         <v>241</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K132" t="s">
         <v>244</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L132" t="s">
         <v>245</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N132" t="s">
         <v>281</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O132" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>246</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B133" t="s">
         <v>247</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K133" t="s">
         <v>252</v>
       </c>
-      <c r="L60" t="s">
+      <c r="L133" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>248</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B134" t="s">
         <v>249</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K134" t="s">
         <v>254</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L134" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>250</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B135" t="s">
         <v>251</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K135" t="s">
         <v>260</v>
       </c>
-      <c r="L62" t="s">
+      <c r="L135" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>256</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B136" t="s">
         <v>257</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K136" t="s">
         <v>275</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L136" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>258</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B137" t="s">
         <v>259</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K137" t="s">
         <v>285</v>
       </c>
-      <c r="L64" t="s">
+      <c r="L137" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>264</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B138" t="s">
         <v>265</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K138" t="s">
         <v>287</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L138" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>266</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B139" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>283</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B140" t="s">
         <v>284</v>
       </c>
     </row>
